--- a/fastqFiles/fastq_0711_5_0718_7.xlsx
+++ b/fastqFiles/fastq_0711_5_0718_7.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807B290-AB73-454E-8F4D-0027446F7459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823CAC45-72BC-CC46-8E8D-E8E8CBBA4E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24240" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="54">
   <si>
     <t>libraryDate</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B45 E2:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -604,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -624,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -644,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -664,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -684,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -704,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -724,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -744,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -764,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -784,7 +787,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -804,7 +807,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -824,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -844,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
@@ -864,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -884,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
         <v>23</v>
@@ -904,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -924,7 +927,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -944,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -964,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
@@ -984,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -1004,7 +1007,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
@@ -1024,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
@@ -1044,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -1064,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
         <v>32</v>
@@ -1084,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>33</v>
@@ -1104,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
         <v>34</v>
@@ -1124,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>
@@ -1144,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
         <v>36</v>
@@ -1164,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
         <v>37</v>
@@ -1184,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
         <v>38</v>
@@ -1204,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
         <v>39</v>
@@ -1224,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
         <v>40</v>
@@ -1244,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
@@ -1264,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
         <v>42</v>
@@ -1284,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
         <v>43</v>
@@ -1304,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -1324,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
         <v>45</v>
@@ -1344,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
         <v>46</v>
@@ -1364,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
@@ -1384,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
         <v>48</v>
@@ -1404,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>49</v>
@@ -1424,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
         <v>50</v>
@@ -1444,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
         <v>51</v>

--- a/fastqFiles/fastq_0711_5_0718_7.xlsx
+++ b/fastqFiles/fastq_0711_5_0718_7.xlsx
@@ -52,136 +52,136 @@
     <t xml:space="preserve">fullRNASEQ</t>
   </si>
   <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_AGATACT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TCCCAGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_CCTAATC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TCAAACA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_ACCTGAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_CCAGGCA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TTTCAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_ACTGGAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_GGCAAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_GATGGCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_AGGCGAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_ACGTCTG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_GTCGATA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TACAGAC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_CCCCCCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_AGCGCCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TGGTCTC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TTCGCTG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TATCTTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_CTCACCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TCGTGCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_711_s_5_withindex_sequence_TGACTCT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_AGATACT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TCCCAGC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_CCTAATC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TCAAACA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_ACCTGAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_CCAGGCA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TTTCAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_ACTGGAT.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_GGCAAGA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_GATGGCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_AGGCGAA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_ACGTCTG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_GTCGATA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TACAGAC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_CCCCCCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_AGCGCCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TGGTCTC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TTCGCTG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TATCTTA.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_CTCACCC.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TCGTGCG.fastq.gz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sequence/run_0711_5_0718_7/run_718_s_7_withindex_sequence_TGACTCT.fastq.gz</t>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_AGATACT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TCCCAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_CCTAATC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TCAAACA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_ACCTGAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_CCAGGCA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TTTCAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_ACTGGAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_GGCAAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_GATGGCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_AGGCGAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_ACGTCTG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_GTCGATA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TACAGAC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_CCCCCCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_AGCGCCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TGGTCTC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TTCGCTG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TATCTTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_CTCACCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TCGTGCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_711_s_5_withindex_sequence_TGACTCT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_AGATACT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TCCCAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_CCTAATC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TCAAACA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_ACCTGAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_CCAGGCA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TTTCAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_ACTGGAT.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_GGCAAGA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_GATGGCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_AGGCGAA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_ACGTCTG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_GTCGATA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TACAGAC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_CCCCCCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_AGCGCCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TGGTCTC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TTCGCTG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TATCTTA.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_CTCACCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TCGTGCG.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run_718_s_7_withindex_sequence_TGACTCT.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -299,8 +299,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/fastqFiles/fastq_0711_5_0718_7.xlsx
+++ b/fastqFiles/fastq_0711_5_0718_7.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -933,7 +933,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">

--- a/fastqFiles/fastq_0711_5_0718_7.xlsx
+++ b/fastqFiles/fastq_0711_5_0718_7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_711_s_5_withindex_sequence_TCCCAGC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4]</t>
   </si>
   <si>
     <t xml:space="preserve">run_711_s_5_withindex_sequence_CCTAATC.fastq.gz</t>
@@ -290,13 +293,15 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,11 +375,11 @@
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -391,16 +396,16 @@
         <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -417,16 +422,16 @@
         <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -443,16 +448,16 @@
         <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -469,16 +474,16 @@
         <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -495,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>4</v>
+      <c r="I8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -521,7 +526,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,7 +546,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -561,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +586,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -604,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -647,7 +652,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,7 +672,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -710,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,7 +735,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -793,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -816,7 +821,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -839,10 +844,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>9</v>
       </c>
@@ -859,16 +864,16 @@
         <v>12</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>9</v>
       </c>
@@ -885,16 +890,16 @@
         <v>12</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>9</v>
       </c>
@@ -911,16 +916,16 @@
         <v>12</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>9</v>
       </c>
@@ -937,16 +942,16 @@
         <v>12</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>9</v>
       </c>
@@ -963,16 +968,16 @@
         <v>12</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>9</v>
       </c>
@@ -989,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>4</v>
+      <c r="I30" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1075,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -1098,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,7 +1123,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -1141,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,7 +1166,7 @@
         <v>12</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0</v>
@@ -1204,7 +1209,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -1287,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -1310,7 +1315,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
